--- a/data/20220215_Eclipse_LC6_PepMap50cm-cartridge_mainlib_DSSO_3CV_stepHCD_OT_001.xlsx
+++ b/data/20220215_Eclipse_LC6_PepMap50cm-cartridge_mainlib_DSSO_3CV_stepHCD_OT_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P42587\Documents\GitHub\MSAnnika_CSM_Annotation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\MSAnnika_Spectral_Library_exporter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F78CE1-5C83-40F2-8C41-B887F7DDBB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE322FFA-B2C7-49EF-BB20-A73050AC4180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSMs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Checked</t>
   </si>
@@ -280,9 +280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,7 +320,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -426,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +861,280 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>416.70770299999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1663.8089809999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20610001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>14.8307</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.6093200000000003</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.81572</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.81572</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>752.40300000000002</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>752.40300000000002</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>-50</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>198.71</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>198.71</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>98.71</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>416.70770299999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1663.8089809999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20610002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14.8307</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.6093200000000003</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.81572</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.81572</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>752.40300000000002</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>752.40300000000002</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>-50</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>198.71</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>198.71</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
